--- a/Mac/Rotek MAC range_New 05.01.2020.xlsx
+++ b/Mac/Rotek MAC range_New 05.01.2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="215">
   <si>
     <t xml:space="preserve">DC:E3:05:00:00:00</t>
   </si>
@@ -731,6 +731,15 @@
   </si>
   <si>
     <t xml:space="preserve">D8:AF:81:6C:68:0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2110(switcam)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8:AF:81:6C:68:0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8:AF:81:6C:8F:1C</t>
   </si>
   <si>
     <t xml:space="preserve">Итого</t>
@@ -1138,7 +1147,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C24:F24 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2548,15 +2557,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.94"/>
@@ -3168,21 +3177,47 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="0" t="s">
+      <c r="A24" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="40" t="n">
-        <f aca="false">G3+G4+G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G19+G20+H21+G22+G23</f>
-        <v>7084123</v>
+      <c r="B24" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="38" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="39" t="n">
+        <v>44160</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="42" t="n">
-        <f aca="false">G1-G24</f>
-        <v>9693092</v>
+      <c r="F25" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="40" t="n">
+        <f aca="false">G3+G4+G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G19+G20+H21+G22+G23+G24</f>
+        <v>7094123</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="42" t="n">
+        <f aca="false">G1-G25</f>
+        <v>9683092</v>
       </c>
     </row>
   </sheetData>
